--- a/igem2017/sdin/tools/preload/works/circuits/7_b.xlsx
+++ b/igem2017/sdin/tools/preload/works/circuits/7_b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>circuitID</t>
   </si>
@@ -73,6 +73,9 @@
     <t>terminator</t>
   </si>
   <si>
+    <t>UVR8-TetRp</t>
+  </si>
+  <si>
     <t>protein</t>
   </si>
   <si>
@@ -89,6 +92,15 @@
   </si>
   <si>
     <t>pabC</t>
+  </si>
+  <si>
+    <t>pabAp</t>
+  </si>
+  <si>
+    <t>pabBp</t>
+  </si>
+  <si>
+    <t>pabCp</t>
   </si>
   <si>
     <t>UV</t>
@@ -129,12 +141,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,10 +174,24 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -174,39 +200,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,68 +265,58 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,31 +337,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,145 +487,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,30 +522,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -543,22 +538,27 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,165 +593,184 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -767,6 +786,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1091,8 +1113,8 @@
   <sheetPr/>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:E53"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1232,14 +1254,14 @@
       <c r="A10" s="2">
         <v>5</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
+      <c r="B10" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -1253,13 +1275,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -1293,13 +1315,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -1313,13 +1335,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -1333,13 +1355,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -1352,13 +1374,13 @@
       <c r="A16" s="2">
         <v>11</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="2">
@@ -1372,14 +1394,14 @@
       <c r="A17" s="2">
         <v>12</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>22</v>
+      <c r="B17" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -1392,14 +1414,14 @@
       <c r="A18" s="2">
         <v>13</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>19</v>
+      <c r="B18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -1412,14 +1434,14 @@
       <c r="A19" s="2">
         <v>14</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>24</v>
+      <c r="B19" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -1433,13 +1455,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
@@ -1450,7 +1472,7 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1458,7 +1480,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1466,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1474,7 +1496,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:6">
@@ -1487,7 +1509,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1495,17 +1517,17 @@
         <v>4</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="7" t="s">
-        <v>33</v>
+      <c r="A31" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1541,8 +1563,8 @@
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="7" t="s">
-        <v>34</v>
+      <c r="A37" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1562,8 +1584,8 @@
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="7" t="s">
-        <v>35</v>
+      <c r="A41" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
